--- a/biology/Botanique/Gossypium/Gossypium.xlsx
+++ b/biology/Botanique/Gossypium/Gossypium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium est un genre de plantes de la famille des Malvaceae. C'est le genre des cotonniers « véritables ».  
 On compte près d'une cinquantaine d'espèces sauvages appartenant à ce genre. Ce sont des plantes herbacées annuelles, pérennes  ou des arbustes. Parmi ces espèces, quatre d'entre elles sont à l'origine des variétés cultivées actuellement pour la production de coton : Gossypium arboreum, Gossypium barbadense, Gossypium herbaceum et Gossypium hirsutum.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gossypium arboreum L. - Cotonnier en arbre
 Gossypium barbadense L. - Cotonnier créole
@@ -553,7 +567,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce sont des plantes des régions subtropicales à tropicales dont les fruits sont des capsules contenant des graines velues. Gossypium arboreum et herbaceum sont originaires d'Asie. Gossypium barbadense serait originaire du Pérou alors que Gossypium hirsutum trouverait son origine en Amérique centrale.
 De ces plantes cultivées depuis près de 5 000 ans, on utilise différentes parties :
